--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.66506566666667</v>
+        <v>24.321797</v>
       </c>
       <c r="H2">
-        <v>34.995197</v>
+        <v>72.96539100000001</v>
       </c>
       <c r="I2">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="J2">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.488193</v>
+        <v>2.270682</v>
       </c>
       <c r="N2">
-        <v>4.464579000000001</v>
+        <v>6.812046</v>
       </c>
       <c r="O2">
-        <v>0.09810006315031751</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="P2">
-        <v>0.09810006315031752</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="Q2">
-        <v>17.35986906967367</v>
+        <v>55.227066655554</v>
       </c>
       <c r="R2">
-        <v>156.238821627063</v>
+        <v>497.043599899986</v>
       </c>
       <c r="S2">
-        <v>0.0002414600507763644</v>
+        <v>0.0005230504438329669</v>
       </c>
       <c r="T2">
-        <v>0.0002414600507763644</v>
+        <v>0.0005230504438329669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.66506566666667</v>
+        <v>24.321797</v>
       </c>
       <c r="H3">
-        <v>34.995197</v>
+        <v>72.96539100000001</v>
       </c>
       <c r="I3">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="J3">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.950917</v>
       </c>
       <c r="O3">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="P3">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="Q3">
-        <v>112.5714493050722</v>
+        <v>234.7127754126164</v>
       </c>
       <c r="R3">
-        <v>1013.143043745649</v>
+        <v>2112.414978713547</v>
       </c>
       <c r="S3">
-        <v>0.001565766870480355</v>
+        <v>0.002222943002178991</v>
       </c>
       <c r="T3">
-        <v>0.001565766870480355</v>
+        <v>0.002222943002178992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.66506566666667</v>
+        <v>24.321797</v>
       </c>
       <c r="H4">
-        <v>34.995197</v>
+        <v>72.96539100000001</v>
       </c>
       <c r="I4">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="J4">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.022043333333333</v>
+        <v>9.928499666666665</v>
       </c>
       <c r="N4">
-        <v>12.06613</v>
+        <v>29.785499</v>
       </c>
       <c r="O4">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="P4">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="Q4">
-        <v>46.91739959751223</v>
+        <v>241.4789534072343</v>
       </c>
       <c r="R4">
-        <v>422.25659637761</v>
+        <v>2173.310580665109</v>
       </c>
       <c r="S4">
-        <v>0.0006525785213956823</v>
+        <v>0.002287024848589747</v>
       </c>
       <c r="T4">
-        <v>0.0006525785213956823</v>
+        <v>0.002287024848589747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.66506566666667</v>
+        <v>24.321797</v>
       </c>
       <c r="H5">
-        <v>34.995197</v>
+        <v>72.96539100000001</v>
       </c>
       <c r="I5">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="J5">
-        <v>0.002461364886242511</v>
+        <v>0.005044792378505166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009611333333333333</v>
+        <v>0.051114</v>
       </c>
       <c r="N5">
-        <v>0.028834</v>
+        <v>0.153342</v>
       </c>
       <c r="O5">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945717</v>
       </c>
       <c r="P5">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945718</v>
       </c>
       <c r="Q5">
-        <v>0.1121168344775556</v>
+        <v>1.243184331858</v>
       </c>
       <c r="R5">
-        <v>1.009051510298</v>
+        <v>11.188658986722</v>
       </c>
       <c r="S5">
-        <v>1.559443590109099E-06</v>
+        <v>1.177408390346084E-05</v>
       </c>
       <c r="T5">
-        <v>1.559443590109099E-06</v>
+        <v>1.177408390346084E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14051.557861</v>
       </c>
       <c r="I6">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="J6">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.488193</v>
+        <v>2.270682</v>
       </c>
       <c r="N6">
-        <v>4.464579000000001</v>
+        <v>6.812046</v>
       </c>
       <c r="O6">
-        <v>0.09810006315031751</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="P6">
-        <v>0.09810006315031752</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="Q6">
-        <v>6970.476682611725</v>
+        <v>10635.53983564373</v>
       </c>
       <c r="R6">
-        <v>62734.29014350552</v>
+        <v>95719.8585207936</v>
       </c>
       <c r="S6">
-        <v>0.09695301542677648</v>
+        <v>0.1007282147743258</v>
       </c>
       <c r="T6">
-        <v>0.09695301542677649</v>
+        <v>0.1007282147743259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14051.557861</v>
       </c>
       <c r="I7">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="J7">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.950917</v>
       </c>
       <c r="O7">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="P7">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="Q7">
         <v>45200.60948383428</v>
@@ -883,10 +883,10 @@
         <v>406805.4853545086</v>
       </c>
       <c r="S7">
-        <v>0.6286995263204718</v>
+        <v>0.4280907946730956</v>
       </c>
       <c r="T7">
-        <v>0.6286995263204718</v>
+        <v>0.4280907946730956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14051.557861</v>
       </c>
       <c r="I8">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="J8">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.022043333333333</v>
+        <v>9.928499666666665</v>
       </c>
       <c r="N8">
-        <v>12.06613</v>
+        <v>29.785499</v>
       </c>
       <c r="O8">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="P8">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="Q8">
-        <v>18838.65820592755</v>
+        <v>46503.62917969529</v>
       </c>
       <c r="R8">
-        <v>169547.9238533479</v>
+        <v>418532.6626172576</v>
       </c>
       <c r="S8">
-        <v>0.2620286678836886</v>
+        <v>0.4404315737786368</v>
       </c>
       <c r="T8">
-        <v>0.2620286678836886</v>
+        <v>0.4404315737786368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>14051.557861</v>
       </c>
       <c r="I9">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="J9">
-        <v>0.9883073701819801</v>
+        <v>0.971518017402211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009611333333333333</v>
+        <v>0.051114</v>
       </c>
       <c r="N9">
-        <v>0.028834</v>
+        <v>0.153342</v>
       </c>
       <c r="O9">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945717</v>
       </c>
       <c r="P9">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945718</v>
       </c>
       <c r="Q9">
-        <v>45.01806881823044</v>
+        <v>239.410442835718</v>
       </c>
       <c r="R9">
-        <v>405.162619364074</v>
+        <v>2154.693985521462</v>
       </c>
       <c r="S9">
-        <v>0.0006261605510431493</v>
+        <v>0.002267434176152756</v>
       </c>
       <c r="T9">
-        <v>0.0006261605510431493</v>
+        <v>0.002267434176152756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.624396</v>
+        <v>108.9258753333333</v>
       </c>
       <c r="H10">
-        <v>121.873188</v>
+        <v>326.777626</v>
       </c>
       <c r="I10">
-        <v>0.008571873034966258</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="J10">
-        <v>0.00857187303496626</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.488193</v>
+        <v>2.270682</v>
       </c>
       <c r="N10">
-        <v>4.464579000000001</v>
+        <v>6.812046</v>
       </c>
       <c r="O10">
-        <v>0.09810006315031751</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="P10">
-        <v>0.09810006315031752</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="Q10">
-        <v>60.456941756428</v>
+        <v>247.336024453644</v>
       </c>
       <c r="R10">
-        <v>544.1124758078521</v>
+        <v>2226.024220082796</v>
       </c>
       <c r="S10">
-        <v>0.0008409012860466937</v>
+        <v>0.002342496627119879</v>
       </c>
       <c r="T10">
-        <v>0.0008409012860466941</v>
+        <v>0.00234249662711988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.624396</v>
+        <v>108.9258753333333</v>
       </c>
       <c r="H11">
-        <v>121.873188</v>
+        <v>326.777626</v>
       </c>
       <c r="I11">
-        <v>0.008571873034966258</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="J11">
-        <v>0.00857187303496626</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.950917</v>
       </c>
       <c r="O11">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="P11">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="Q11">
-        <v>392.0378389237107</v>
+        <v>1051.167991975894</v>
       </c>
       <c r="R11">
-        <v>3528.340550313396</v>
+        <v>9460.511927783044</v>
       </c>
       <c r="S11">
-        <v>0.005452891154469681</v>
+        <v>0.009955514895895828</v>
       </c>
       <c r="T11">
-        <v>0.005452891154469681</v>
+        <v>0.00995551489589583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.624396</v>
+        <v>108.9258753333333</v>
       </c>
       <c r="H12">
-        <v>121.873188</v>
+        <v>326.777626</v>
       </c>
       <c r="I12">
-        <v>0.008571873034966258</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="J12">
-        <v>0.00857187303496626</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.022043333333333</v>
+        <v>9.928499666666665</v>
       </c>
       <c r="N12">
-        <v>12.06613</v>
+        <v>29.785499</v>
       </c>
       <c r="O12">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="P12">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="Q12">
-        <v>163.3930811024933</v>
+        <v>1081.470516938375</v>
       </c>
       <c r="R12">
-        <v>1470.53772992244</v>
+        <v>9733.234652445373</v>
       </c>
       <c r="S12">
-        <v>0.002272649724555573</v>
+        <v>0.01024250730904967</v>
       </c>
       <c r="T12">
-        <v>0.002272649724555573</v>
+        <v>0.01024250730904967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.624396</v>
+        <v>108.9258753333333</v>
       </c>
       <c r="H13">
-        <v>121.873188</v>
+        <v>326.777626</v>
       </c>
       <c r="I13">
-        <v>0.008571873034966258</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="J13">
-        <v>0.00857187303496626</v>
+        <v>0.02259324940930984</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009611333333333333</v>
+        <v>0.051114</v>
       </c>
       <c r="N13">
-        <v>0.028834</v>
+        <v>0.153342</v>
       </c>
       <c r="O13">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945717</v>
       </c>
       <c r="P13">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945718</v>
       </c>
       <c r="Q13">
-        <v>0.3904546114213333</v>
+        <v>5.567637191788</v>
       </c>
       <c r="R13">
-        <v>3.514091502792</v>
+        <v>50.108734726092</v>
       </c>
       <c r="S13">
-        <v>5.430869894310385E-06</v>
+        <v>5.273057724446026E-05</v>
       </c>
       <c r="T13">
-        <v>5.430869894310386E-06</v>
+        <v>5.273057724446028E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.125034333333334</v>
+        <v>4.068781333333334</v>
       </c>
       <c r="H14">
-        <v>9.375103000000001</v>
+        <v>12.206344</v>
       </c>
       <c r="I14">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="J14">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.488193</v>
+        <v>2.270682</v>
       </c>
       <c r="N14">
-        <v>4.464579000000001</v>
+        <v>6.812046</v>
       </c>
       <c r="O14">
-        <v>0.09810006315031751</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="P14">
-        <v>0.09810006315031752</v>
+        <v>0.1036812626940959</v>
       </c>
       <c r="Q14">
-        <v>4.650654219626334</v>
+        <v>9.238908535536</v>
       </c>
       <c r="R14">
-        <v>41.85588797663701</v>
+        <v>83.15017681982401</v>
       </c>
       <c r="S14">
-        <v>6.468638671797294E-05</v>
+        <v>8.750084881718609E-05</v>
       </c>
       <c r="T14">
-        <v>6.468638671797295E-05</v>
+        <v>8.750084881718611E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.125034333333334</v>
+        <v>4.068781333333334</v>
       </c>
       <c r="H15">
-        <v>9.375103000000001</v>
+        <v>12.206344</v>
       </c>
       <c r="I15">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="J15">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.950917</v>
       </c>
       <c r="O15">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="P15">
-        <v>0.6361376483560043</v>
+        <v>0.4406411276013061</v>
       </c>
       <c r="Q15">
-        <v>30.15753653549456</v>
+        <v>39.26498355749423</v>
       </c>
       <c r="R15">
-        <v>271.4178288194511</v>
+        <v>353.3848520174481</v>
       </c>
       <c r="S15">
-        <v>0.0004194640105823947</v>
+        <v>0.0003718750301357189</v>
       </c>
       <c r="T15">
-        <v>0.0004194640105823947</v>
+        <v>0.000371875030135719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.125034333333334</v>
+        <v>4.068781333333334</v>
       </c>
       <c r="H16">
-        <v>9.375103000000001</v>
+        <v>12.206344</v>
       </c>
       <c r="I16">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="J16">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.022043333333333</v>
+        <v>9.928499666666665</v>
       </c>
       <c r="N16">
-        <v>12.06613</v>
+        <v>29.785499</v>
       </c>
       <c r="O16">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="P16">
-        <v>0.2651287198591268</v>
+        <v>0.4533437011866523</v>
       </c>
       <c r="Q16">
-        <v>12.56902350682111</v>
+        <v>40.39689411173956</v>
       </c>
       <c r="R16">
-        <v>113.12121156139</v>
+        <v>363.572047005656</v>
       </c>
       <c r="S16">
-        <v>0.0001748237294869986</v>
+        <v>0.0003825952503760908</v>
       </c>
       <c r="T16">
-        <v>0.0001748237294869986</v>
+        <v>0.0003825952503760909</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.125034333333334</v>
+        <v>4.068781333333334</v>
       </c>
       <c r="H17">
-        <v>9.375103000000001</v>
+        <v>12.206344</v>
       </c>
       <c r="I17">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="J17">
-        <v>0.0006593918968110631</v>
+        <v>0.0008439408099740362</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009611333333333333</v>
+        <v>0.051114</v>
       </c>
       <c r="N17">
-        <v>0.028834</v>
+        <v>0.153342</v>
       </c>
       <c r="O17">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945717</v>
       </c>
       <c r="P17">
-        <v>0.0006335686345512656</v>
+        <v>0.002333908517945718</v>
       </c>
       <c r="Q17">
-        <v>0.03003574665577778</v>
+        <v>0.207971689072</v>
       </c>
       <c r="R17">
-        <v>0.270321719902</v>
+        <v>1.871745201648</v>
       </c>
       <c r="S17">
-        <v>4.177700236967543E-07</v>
+        <v>1.969680645040411E-06</v>
       </c>
       <c r="T17">
-        <v>4.177700236967543E-07</v>
+        <v>1.969680645040411E-06</v>
       </c>
     </row>
   </sheetData>
